--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Hasib Habibi</t>
   </si>
   <si>
-    <t>Justin</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Justin Langshaw</t>
   </si>
 </sst>
 </file>
@@ -140,11 +140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139678080"/>
-        <c:axId val="139679616"/>
+        <c:axId val="201109504"/>
+        <c:axId val="201111040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139678080"/>
+        <c:axId val="201109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -153,7 +153,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139679616"/>
+        <c:crossAx val="201111040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -161,7 +161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139679616"/>
+        <c:axId val="201111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -191,7 +191,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139678080"/>
+        <c:crossAx val="201109504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,7 +737,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Justin</c:v>
+                  <c:v>Justin Langshaw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,7 +911,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -921,11 +920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139515776"/>
-        <c:axId val="139677696"/>
+        <c:axId val="200985600"/>
+        <c:axId val="201003776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139515776"/>
+        <c:axId val="200985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139677696"/>
+        <c:crossAx val="201003776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139677696"/>
+        <c:axId val="201003776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -956,7 +955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139515776"/>
+        <c:crossAx val="200985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,7 +986,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -998,7 +997,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652387" cy="6276258"/>
+    <xdr:ext cx="8657492" cy="6283569"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1485,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1621,7 +1620,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1635,7 +1634,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>

--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Justin Langshaw</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -140,11 +143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201109504"/>
-        <c:axId val="201111040"/>
+        <c:axId val="205172736"/>
+        <c:axId val="205174272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201109504"/>
+        <c:axId val="205172736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -153,7 +156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201111040"/>
+        <c:crossAx val="205174272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -161,7 +164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201111040"/>
+        <c:axId val="205174272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -191,7 +194,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201109504"/>
+        <c:crossAx val="205172736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -347,6 +350,9 @@
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -903,7 +909,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,11 +926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200985600"/>
-        <c:axId val="201003776"/>
+        <c:axId val="205052928"/>
+        <c:axId val="205067008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200985600"/>
+        <c:axId val="205052928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201003776"/>
+        <c:crossAx val="205067008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201003776"/>
+        <c:axId val="205067008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -955,7 +961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200985600"/>
+        <c:crossAx val="205052928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -986,7 +992,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1484,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,6 +1505,9 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -1561,6 +1570,9 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1638,7 +1650,7 @@
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -143,11 +143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205172736"/>
-        <c:axId val="205174272"/>
+        <c:axId val="170139008"/>
+        <c:axId val="201901184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205172736"/>
+        <c:axId val="170139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -156,7 +156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205174272"/>
+        <c:crossAx val="201901184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -164,7 +164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205174272"/>
+        <c:axId val="201901184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -194,7 +194,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205172736"/>
+        <c:crossAx val="170139008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,6 +447,9 @@
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -541,6 +544,9 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -635,6 +641,9 @@
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -729,6 +738,9 @@
                 <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -823,6 +835,9 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -909,7 +924,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,11 +941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205052928"/>
-        <c:axId val="205067008"/>
+        <c:axId val="201771648"/>
+        <c:axId val="201789824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205052928"/>
+        <c:axId val="201771648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205067008"/>
+        <c:crossAx val="201789824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205067008"/>
+        <c:axId val="201789824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -961,7 +976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205052928"/>
+        <c:crossAx val="201771648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,7 +1506,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1602,9 @@
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1601,6 +1619,9 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1615,6 +1636,9 @@
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1629,6 +1653,9 @@
       <c r="D7">
         <v>6</v>
       </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1643,6 +1670,9 @@
       <c r="D8">
         <v>3</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1650,7 +1680,7 @@
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="380" yWindow="80" windowWidth="22260" windowHeight="16420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,12 @@
     <definedName name="Hours">Sheet1!$B$3:$Q$8</definedName>
     <definedName name="Week">Sheet1!$B$2:$Q$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,10 +59,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +108,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,10 +157,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6334310982622486E-2"/>
-          <c:y val="8.5143886691719808E-2"/>
-          <c:w val="0.75465487154007327"/>
-          <c:h val="0.77513018107286225"/>
+          <c:x val="0.0763343109826225"/>
+          <c:y val="0.0851438866917198"/>
+          <c:w val="0.754654871540074"/>
+          <c:h val="0.775130181072862"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -143,11 +176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170139008"/>
-        <c:axId val="201901184"/>
+        <c:axId val="2113124712"/>
+        <c:axId val="2113127848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170139008"/>
+        <c:axId val="2113124712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -156,7 +189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201901184"/>
+        <c:crossAx val="2113127848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -164,7 +197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201901184"/>
+        <c:axId val="2113127848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -194,7 +227,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170139008"/>
+        <c:crossAx val="2113124712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -252,10 +285,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12664564583187102"/>
-          <c:y val="0.12449843838842764"/>
-          <c:w val="0.84439511037301196"/>
-          <c:h val="0.51700964183987219"/>
+          <c:x val="0.126645645831871"/>
+          <c:y val="0.124498438388428"/>
+          <c:w val="0.844395110373012"/>
+          <c:h val="0.517009641839872"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -285,52 +318,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,16 +375,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,52 +418,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,16 +475,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,52 +518,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,16 +575,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,52 +618,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,16 +675,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,52 +718,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,16 +775,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,52 +818,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,16 +875,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,52 +918,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +975,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201771648"/>
-        <c:axId val="201789824"/>
+        <c:axId val="2107270200"/>
+        <c:axId val="2107224952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201771648"/>
+        <c:axId val="2107270200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201789824"/>
+        <c:crossAx val="2107224952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,10 +1015,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201789824"/>
+        <c:axId val="2107224952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
+          <c:max val="12.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -976,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201771648"/>
+        <c:crossAx val="2107270200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1007,7 +1058,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1018,7 +1069,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657492" cy="6283569"/>
+    <xdr:ext cx="8577385" cy="5832231"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1505,21 +1556,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1588,8 +1639,11 @@
       <c r="E3">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1605,8 +1659,11 @@
       <c r="E4">
         <v>6</v>
       </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1617,13 +1674,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1639,8 +1699,11 @@
       <c r="E6">
         <v>6</v>
       </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1656,8 +1719,11 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1673,18 +1739,26 @@
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1694,9 +1768,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1706,8 +1785,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -143,11 +143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170139008"/>
-        <c:axId val="201901184"/>
+        <c:axId val="196657152"/>
+        <c:axId val="196658688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170139008"/>
+        <c:axId val="196657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -156,7 +156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201901184"/>
+        <c:crossAx val="196658688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -164,7 +164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201901184"/>
+        <c:axId val="196658688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -194,7 +194,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170139008"/>
+        <c:crossAx val="196657152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -348,10 +348,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,10 +448,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,10 +548,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,10 +648,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,10 +748,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +851,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,11 +959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201771648"/>
-        <c:axId val="201789824"/>
+        <c:axId val="197254144"/>
+        <c:axId val="197268224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201771648"/>
+        <c:axId val="197254144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201789824"/>
+        <c:crossAx val="197268224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201789824"/>
+        <c:axId val="197268224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -976,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201771648"/>
+        <c:crossAx val="197254144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1007,7 +1025,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1505,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,10 +1601,13 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>6</v>
+      <c r="F3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,10 +1621,13 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,10 +1641,13 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,10 +1661,13 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,10 +1681,13 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1704,10 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,7 +1716,7 @@
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -143,11 +146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196657152"/>
-        <c:axId val="196658688"/>
+        <c:axId val="194760704"/>
+        <c:axId val="194762240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196657152"/>
+        <c:axId val="194760704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -156,7 +159,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196658688"/>
+        <c:crossAx val="194762240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -164,7 +167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196658688"/>
+        <c:axId val="194762240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -194,7 +197,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196657152"/>
+        <c:crossAx val="194760704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -356,6 +359,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -456,6 +465,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -556,6 +571,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -656,6 +677,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -756,6 +783,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -856,6 +889,12 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -942,7 +981,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,11 +998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197254144"/>
-        <c:axId val="197268224"/>
+        <c:axId val="194632704"/>
+        <c:axId val="194646784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197254144"/>
+        <c:axId val="194632704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197268224"/>
+        <c:crossAx val="194646784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197268224"/>
+        <c:axId val="194646784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -994,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197254144"/>
+        <c:crossAx val="194632704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,7 +1064,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1521,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,12 +1571,15 @@
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1609,8 +1651,18 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <f>SUM(B3:Q3)</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1629,8 +1681,18 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <f>SUM(B4:Q4)</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1711,18 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <f>SUM(B5:Q5)</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1669,8 +1741,18 @@
       <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <f>SUM(B6:Q6)</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1689,8 +1771,18 @@
       <c r="F7">
         <v>3</v>
       </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f xml:space="preserve"> SUM(B7:Q7)</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1709,14 +1801,24 @@
       <c r="F8">
         <v>3</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <f>SUM(B8:Q8)</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <f xml:space="preserve"> SUM(B3:Q8)</f>
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Time Chart.xlsx
+++ b/Time Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="1380" yWindow="2180" windowWidth="20460" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,12 @@
     <definedName name="Hours">Sheet1!$B$3:$Q$8</definedName>
     <definedName name="Week">Sheet1!$B$2:$Q$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,10 +132,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6334310982622486E-2"/>
-          <c:y val="8.5143886691719808E-2"/>
-          <c:w val="0.75465487154007327"/>
-          <c:h val="0.77513018107286225"/>
+          <c:x val="0.0763343109826225"/>
+          <c:y val="0.0851438866917198"/>
+          <c:w val="0.754654871540074"/>
+          <c:h val="0.775130181072862"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -146,11 +151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194760704"/>
-        <c:axId val="194762240"/>
+        <c:axId val="2064062792"/>
+        <c:axId val="2064067544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194760704"/>
+        <c:axId val="2064062792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -159,7 +164,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194762240"/>
+        <c:crossAx val="2064067544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -167,7 +172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194762240"/>
+        <c:axId val="2064067544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -197,7 +202,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194760704"/>
+        <c:crossAx val="2064062792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -255,10 +260,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12664564583187102"/>
-          <c:y val="0.12449843838842764"/>
-          <c:w val="0.84439511037301196"/>
-          <c:h val="0.51700964183987219"/>
+          <c:x val="0.126645645831871"/>
+          <c:y val="0.124498438388428"/>
+          <c:w val="0.844395110373012"/>
+          <c:h val="0.517009641839872"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -288,52 +293,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,25 +350,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,52 +399,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,25 +456,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,52 +505,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,25 +562,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,52 +611,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,25 +668,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,52 +717,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,25 +774,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,52 +823,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,25 +880,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,52 +929,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +986,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,11 +1003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194632704"/>
-        <c:axId val="194646784"/>
+        <c:axId val="2064146296"/>
+        <c:axId val="2064149176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194632704"/>
+        <c:axId val="2064146296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194646784"/>
+        <c:crossAx val="2064149176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,10 +1026,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194646784"/>
+        <c:axId val="2064149176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
+          <c:max val="12.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1033,7 +1038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194632704"/>
+        <c:crossAx val="2064146296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,7 +1069,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1075,7 +1080,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657492" cy="6283569"/>
+    <xdr:ext cx="8577385" cy="5832231"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1562,16 +1567,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1823,6 +1828,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1832,9 +1842,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1844,8 +1859,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>